--- a/to be deleted.xlsx
+++ b/to be deleted.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\accim\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C88B31-4522-4BE5-B96C-C29CC0C4F9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="256">
   <si>
     <t>Model</t>
   </si>
@@ -697,7 +691,7 @@
     <t>JapaneseApartment_v04_Adi</t>
   </si>
   <si>
-    <t>JapaneseApartment_v04_Adiabatic_PMV_</t>
+    <t>JapaneseApartment_v04_Adiabat</t>
   </si>
   <si>
     <t>AS_JPN</t>
@@ -757,6 +751,9 @@
     <t>NS_X</t>
   </si>
   <si>
+    <t>NS_ex_ac</t>
+  </si>
+  <si>
     <t>Japan_Asahikawa_Present</t>
   </si>
   <si>
@@ -775,7 +772,7 @@
     <t>JapaneseApartment_v04_Adiabatic[AS_JPN[CA_90[CM_3[HM_2[VC_0[VO_0[MT_50[MW_50[AT_0.1[NS_X[Japan_Asahikawa_Present</t>
   </si>
   <si>
-    <t>JapaneseApartment_v04_Adiabatic_PMV_SCRIPT[AS_PMV[CA_X[CM_X[HM_0[VC_X[VO_X[MT_X[MW_X[AT_X[NS_X[Japan_Asahikawa_Present</t>
+    <t>JapaneseApartment_v04_Adiabatic_PMV[AS_PMV[CA_X[CM_X[HM_0[VC_X[VO_X[MT_X[MW_X[AT_X[NS_ex_ac[Japan_Asahikawa_Present</t>
   </si>
   <si>
     <t>01/01</t>
@@ -790,8 +787,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,14 +851,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -908,7 +897,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -940,27 +929,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -992,24 +963,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1185,186 +1138,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:HQ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FM1" workbookViewId="0">
-      <selection activeCell="FP2" sqref="FP2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="120" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="38.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.25" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="39.25" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="52" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="52.25" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="34" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="46" bestFit="1" customWidth="1"/>
-    <col min="37" max="41" width="43.875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="60.75" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="60.75" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="60.75" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="60.75" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="60.75" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="52" max="56" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="57" max="61" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="66" width="50.375" bestFit="1" customWidth="1"/>
-    <col min="67" max="71" width="51" bestFit="1" customWidth="1"/>
-    <col min="72" max="76" width="54.625" bestFit="1" customWidth="1"/>
-    <col min="77" max="81" width="55.25" bestFit="1" customWidth="1"/>
-    <col min="82" max="86" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="87" max="91" width="34" bestFit="1" customWidth="1"/>
-    <col min="92" max="96" width="33.125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="45" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="45" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="45" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="45" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="45" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="62.25" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="29.875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="118" max="122" width="45.25" bestFit="1" customWidth="1"/>
-    <col min="123" max="127" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="84" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="84.25" bestFit="1" customWidth="1"/>
-    <col min="140" max="144" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="145" max="149" width="56.875" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="52.25" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="49.625" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="57.875" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="55.375" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="54.875" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="52.25" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="58.75" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="56.125" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="56.75" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="63" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="60.375" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="63.625" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="61" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="41.5" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="39" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="50.875" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="61.125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="58.625" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="53.625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="51.125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="174" max="174" width="58" bestFit="1" customWidth="1"/>
-    <col min="175" max="175" width="55.5" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="58.375" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="55.75" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="49" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="56" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="42.375" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="41.625" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="50.25" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="58.5" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="55.875" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="55.375" bestFit="1" customWidth="1"/>
-    <col min="193" max="193" width="52.75" bestFit="1" customWidth="1"/>
-    <col min="194" max="194" width="59.25" bestFit="1" customWidth="1"/>
-    <col min="195" max="195" width="56.625" bestFit="1" customWidth="1"/>
-    <col min="196" max="196" width="59.875" bestFit="1" customWidth="1"/>
-    <col min="197" max="197" width="57.25" bestFit="1" customWidth="1"/>
-    <col min="198" max="198" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="199" max="199" width="60.875" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="64.125" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="61.5" bestFit="1" customWidth="1"/>
-    <col min="202" max="202" width="42.125" bestFit="1" customWidth="1"/>
-    <col min="203" max="203" width="39.5" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="51.375" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="61.625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="59.125" bestFit="1" customWidth="1"/>
-    <col min="208" max="208" width="54.25" bestFit="1" customWidth="1"/>
-    <col min="209" max="209" width="51.625" bestFit="1" customWidth="1"/>
-    <col min="210" max="210" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="211" max="211" width="51.875" bestFit="1" customWidth="1"/>
-    <col min="212" max="212" width="58.625" bestFit="1" customWidth="1"/>
-    <col min="213" max="213" width="56" bestFit="1" customWidth="1"/>
-    <col min="214" max="214" width="58.875" bestFit="1" customWidth="1"/>
-    <col min="215" max="215" width="56.25" bestFit="1" customWidth="1"/>
-    <col min="216" max="216" width="52.125" bestFit="1" customWidth="1"/>
-    <col min="217" max="217" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="218" max="218" width="56.5" bestFit="1" customWidth="1"/>
-    <col min="219" max="219" width="53.875" bestFit="1" customWidth="1"/>
-    <col min="220" max="220" width="42.875" bestFit="1" customWidth="1"/>
-    <col min="221" max="221" width="42.25" bestFit="1" customWidth="1"/>
-    <col min="222" max="222" width="27.75" bestFit="1" customWidth="1"/>
-    <col min="223" max="223" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="224" max="224" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="225" max="225" width="28" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:225">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2038,7 +1819,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:225">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2076,52 +1857,52 @@
         <v>244</v>
       </c>
       <c r="M2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA2">
-        <v>7.1532277397260042</v>
+        <v>7.153227739726004</v>
       </c>
       <c r="AB2">
-        <v>75.886700913242009</v>
+        <v>75.88670091324201</v>
       </c>
       <c r="AC2">
         <v>2.737762557077621</v>
@@ -2133,19 +1914,19 @@
         <v>21.9604543379007</v>
       </c>
       <c r="AF2">
-        <v>17.160454337899139</v>
+        <v>17.16045433789914</v>
       </c>
       <c r="AG2">
-        <v>22.060454337898541</v>
+        <v>22.06045433789854</v>
       </c>
       <c r="AH2">
-        <v>17.060454337898101</v>
+        <v>17.0604543378981</v>
       </c>
       <c r="AI2">
-        <v>19.560454337898459</v>
+        <v>19.56045433789846</v>
       </c>
       <c r="AJ2">
-        <v>-32.839545662098601</v>
+        <v>-32.8395456620986</v>
       </c>
       <c r="AK2">
         <v>18.41378116664492</v>
@@ -2154,7 +1935,7 @@
         <v>18.30261842172898</v>
       </c>
       <c r="AM2">
-        <v>18.349461726203341</v>
+        <v>18.34946172620334</v>
       </c>
       <c r="AN2">
         <v>18.59756409863002</v>
@@ -2163,34 +1944,34 @@
         <v>18.32882767878122</v>
       </c>
       <c r="AP2">
-        <v>7.1533234398782906</v>
+        <v>7.153323439878291</v>
       </c>
       <c r="AQ2">
-        <v>7.1648420245429918</v>
+        <v>7.164842024542992</v>
       </c>
       <c r="AR2">
-        <v>7.1533234398782906</v>
+        <v>7.153323439878291</v>
       </c>
       <c r="AS2">
-        <v>7.1648420245429918</v>
+        <v>7.164842024542992</v>
       </c>
       <c r="AT2">
-        <v>7.1533234398782906</v>
+        <v>7.153323439878291</v>
       </c>
       <c r="AU2">
-        <v>7.1648420245429918</v>
+        <v>7.164842024542992</v>
       </c>
       <c r="AV2">
-        <v>7.1533234398782906</v>
+        <v>7.153323439878291</v>
       </c>
       <c r="AW2">
-        <v>7.1648420245429918</v>
+        <v>7.164842024542992</v>
       </c>
       <c r="AX2">
-        <v>7.1533234398782906</v>
+        <v>7.153323439878291</v>
       </c>
       <c r="AY2">
-        <v>7.1648420245429918</v>
+        <v>7.164842024542992</v>
       </c>
       <c r="AZ2">
         <v>8727</v>
@@ -2283,34 +2064,34 @@
         <v>3888</v>
       </c>
       <c r="CD2">
-        <v>15.786300000000001</v>
+        <v>15.7863</v>
       </c>
       <c r="CE2">
-        <v>3.3443000000000001</v>
+        <v>3.3443</v>
       </c>
       <c r="CF2">
-        <v>15.029299999999999</v>
+        <v>15.0293</v>
       </c>
       <c r="CG2">
-        <v>12.758800000000001</v>
+        <v>12.7588</v>
       </c>
       <c r="CH2">
-        <v>1.3033999999999999</v>
+        <v>1.3034</v>
       </c>
       <c r="CI2">
-        <v>41.044199999999996</v>
+        <v>41.0442</v>
       </c>
       <c r="CJ2">
-        <v>8.6951999999999998</v>
+        <v>8.6952</v>
       </c>
       <c r="CK2">
         <v>39.0762</v>
       </c>
       <c r="CL2">
-        <v>33.172800000000002</v>
+        <v>33.1728</v>
       </c>
       <c r="CM2">
-        <v>3.3887999999999998</v>
+        <v>3.3888</v>
       </c>
       <c r="CN2">
         <v>1375.5</v>
@@ -2328,25 +2109,25 @@
         <v>1623.5</v>
       </c>
       <c r="CS2">
-        <v>16960.387345544488</v>
+        <v>16960.38734554449</v>
       </c>
       <c r="CT2">
-        <v>413.22251001468078</v>
+        <v>413.2225100146808</v>
       </c>
       <c r="CU2">
-        <v>14028.372897515421</v>
+        <v>14028.37289751542</v>
       </c>
       <c r="CV2">
         <v>1613.346777246684</v>
       </c>
       <c r="CW2">
-        <v>16841.510533754219</v>
+        <v>16841.51053375422</v>
       </c>
       <c r="CX2">
         <v>430.9915123209052</v>
       </c>
       <c r="CY2">
-        <v>10613.904811681101</v>
+        <v>10613.9048116811</v>
       </c>
       <c r="CZ2">
         <v>319.9580623788475</v>
@@ -2358,19 +2139,19 @@
         <v>1016.680499992479</v>
       </c>
       <c r="DC2">
-        <v>1360.6565552027221</v>
+        <v>1360.656555202722</v>
       </c>
       <c r="DD2">
-        <v>150316.57323332981</v>
+        <v>150316.5732333298</v>
       </c>
       <c r="DE2">
-        <v>192364.57323334349</v>
+        <v>192364.5732333435</v>
       </c>
       <c r="DF2">
-        <v>150321.91641666309</v>
+        <v>150321.9164166631</v>
       </c>
       <c r="DG2">
-        <v>192369.91641667669</v>
+        <v>192369.9164166767</v>
       </c>
       <c r="DH2">
         <v>150319.7146833298</v>
@@ -2382,55 +2163,55 @@
         <v>150320.2727833298</v>
       </c>
       <c r="DK2">
-        <v>192368.27278334359</v>
+        <v>192368.2727833436</v>
       </c>
       <c r="DL2">
-        <v>150297.92734999699</v>
+        <v>150297.927349997</v>
       </c>
       <c r="DM2">
-        <v>192345.92735001029</v>
+        <v>192345.9273500103</v>
       </c>
       <c r="DN2">
-        <v>2.5009365328055111</v>
+        <v>2.500936532805511</v>
       </c>
       <c r="DO2">
-        <v>18.394321918328728</v>
+        <v>18.39432191832873</v>
       </c>
       <c r="DP2">
-        <v>109.29589280054449</v>
+        <v>109.2958928005445</v>
       </c>
       <c r="DQ2">
         <v>2.361782315993151</v>
       </c>
       <c r="DR2">
-        <v>3.0106749488753541</v>
+        <v>3.010674948875354</v>
       </c>
       <c r="DS2">
-        <v>75.068181144522256</v>
+        <v>75.06818114452226</v>
       </c>
       <c r="DT2">
-        <v>590.71657128559627</v>
+        <v>590.7165712855963</v>
       </c>
       <c r="DU2">
-        <v>2186.0601810267708</v>
+        <v>2186.060181026771</v>
       </c>
       <c r="DV2">
-        <v>35.051710248242237</v>
+        <v>35.05171024824224</v>
       </c>
       <c r="DW2">
-        <v>356.77263386770619</v>
+        <v>356.7726338677062</v>
       </c>
       <c r="EJ2">
-        <v>77.569117677327768</v>
+        <v>77.56911767732777</v>
       </c>
       <c r="EK2">
-        <v>609.11089320392489</v>
+        <v>609.1108932039249</v>
       </c>
       <c r="EL2">
         <v>2295.356073827315</v>
       </c>
       <c r="EM2">
-        <v>37.413492564235383</v>
+        <v>37.41349256423538</v>
       </c>
       <c r="EN2">
         <v>359.7833088165815</v>
@@ -2451,10 +2232,10 @@
         <v>0</v>
       </c>
       <c r="ET2">
-        <v>91.992253091988459</v>
+        <v>91.99225309198846</v>
       </c>
       <c r="EU2">
-        <v>18.398450618397689</v>
+        <v>18.39845061839769</v>
       </c>
       <c r="EV2">
         <v>40804.5</v>
@@ -2466,7 +2247,7 @@
         <v>24315.5</v>
       </c>
       <c r="EY2">
-        <v>4863.1000000000004</v>
+        <v>4863.1</v>
       </c>
       <c r="EZ2">
         <v>44.5</v>
@@ -2499,28 +2280,28 @@
         <v>1380.2</v>
       </c>
       <c r="FJ2">
-        <v>61889.502466869737</v>
+        <v>61889.50246686974</v>
       </c>
       <c r="FK2">
-        <v>12377.900493373951</v>
+        <v>12377.90049337395</v>
       </c>
       <c r="FL2">
         <v>3794.199361953597</v>
       </c>
       <c r="FM2">
-        <v>758.83987239071939</v>
+        <v>758.8398723907194</v>
       </c>
       <c r="FN2">
-        <v>36.864737304849349</v>
+        <v>36.86473730484935</v>
       </c>
       <c r="FO2">
-        <v>7.3729474609698684</v>
+        <v>7.372947460969868</v>
       </c>
       <c r="FP2">
-        <v>765.78522602201633</v>
+        <v>765.7852260220163</v>
       </c>
       <c r="FQ2">
-        <v>153.15704520440329</v>
+        <v>153.1570452044033</v>
       </c>
       <c r="FR2">
         <v>0</v>
@@ -2529,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="FV2">
-        <v>802.64996332686565</v>
+        <v>802.6499633268656</v>
       </c>
       <c r="FW2">
-        <v>80.264996332686565</v>
+        <v>80.26499633268656</v>
       </c>
       <c r="FX2">
         <v>0</v>
@@ -2541,7 +2322,7 @@
         <v>125.3772</v>
       </c>
       <c r="GA2">
-        <v>48.222099999999998</v>
+        <v>48.2221</v>
       </c>
       <c r="GB2">
         <v>0</v>
@@ -2550,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="GF2">
-        <v>91.992253091988459</v>
+        <v>91.99225309198846</v>
       </c>
       <c r="GG2">
-        <v>18.398450618397689</v>
+        <v>18.39845061839769</v>
       </c>
       <c r="GH2">
         <v>40804.5</v>
@@ -2565,7 +2346,7 @@
         <v>24315.5</v>
       </c>
       <c r="GK2">
-        <v>4863.1000000000004</v>
+        <v>4863.1</v>
       </c>
       <c r="GL2">
         <v>44.5</v>
@@ -2598,28 +2379,28 @@
         <v>1380.2</v>
       </c>
       <c r="GV2">
-        <v>61889.502466869737</v>
+        <v>61889.50246686974</v>
       </c>
       <c r="GW2">
-        <v>12377.900493373951</v>
+        <v>12377.90049337395</v>
       </c>
       <c r="GX2">
         <v>3794.199361953597</v>
       </c>
       <c r="GY2">
-        <v>758.83987239071939</v>
+        <v>758.8398723907194</v>
       </c>
       <c r="GZ2">
-        <v>36.864737304849349</v>
+        <v>36.86473730484935</v>
       </c>
       <c r="HA2">
-        <v>7.3729474609698684</v>
+        <v>7.372947460969868</v>
       </c>
       <c r="HB2">
-        <v>765.78522602201633</v>
+        <v>765.7852260220163</v>
       </c>
       <c r="HC2">
-        <v>153.15704520440329</v>
+        <v>153.1570452044033</v>
       </c>
       <c r="HD2">
         <v>0</v>
@@ -2628,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="HH2">
-        <v>802.64996332686565</v>
+        <v>802.6499633268656</v>
       </c>
       <c r="HI2">
-        <v>80.264996332686565</v>
+        <v>80.26499633268656</v>
       </c>
       <c r="HJ2">
         <v>0</v>
@@ -2640,7 +2421,7 @@
         <v>125.3772</v>
       </c>
       <c r="HM2">
-        <v>48.222099999999998</v>
+        <v>48.2221</v>
       </c>
       <c r="HN2">
         <v>0</v>
@@ -2649,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:225" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:225">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2684,184 +2465,385 @@
         <v>243</v>
       </c>
       <c r="L3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M3" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="R3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="S3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="T3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="U3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="W3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="X3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Y3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Z3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AA3">
-        <v>7.1532277397260042</v>
+        <v>7.153227739726004</v>
+      </c>
+      <c r="AB3">
+        <v>75.88670091324201</v>
       </c>
       <c r="AC3">
         <v>2.737762557077621</v>
       </c>
+      <c r="AD3">
+        <v>21.16451626538943</v>
+      </c>
+      <c r="AE3">
+        <v>25.43123219610795</v>
+      </c>
+      <c r="AF3">
+        <v>21.4791774015873</v>
+      </c>
+      <c r="AG3">
+        <v>25.68123219610796</v>
+      </c>
+      <c r="AH3">
+        <v>21.22917740158734</v>
+      </c>
       <c r="AK3">
-        <v>22.614515348337921</v>
+        <v>22.61451534833792</v>
       </c>
       <c r="AL3">
-        <v>22.498369761498711</v>
+        <v>22.49836976149871</v>
       </c>
       <c r="AM3">
-        <v>22.657826767731091</v>
+        <v>22.65782676773109</v>
       </c>
       <c r="AN3">
-        <v>22.788383571983321</v>
+        <v>22.78838357198332</v>
       </c>
       <c r="AO3">
-        <v>22.536171451851249</v>
+        <v>22.53617145185125</v>
+      </c>
+      <c r="AP3">
+        <v>7.153323439878291</v>
+      </c>
+      <c r="AQ3">
+        <v>7.164842024542992</v>
+      </c>
+      <c r="AR3">
+        <v>7.153323439878291</v>
+      </c>
+      <c r="AS3">
+        <v>7.164842024542992</v>
+      </c>
+      <c r="AT3">
+        <v>7.153323439878291</v>
+      </c>
+      <c r="AU3">
+        <v>7.164842024542992</v>
+      </c>
+      <c r="AV3">
+        <v>7.153323439878291</v>
+      </c>
+      <c r="AW3">
+        <v>7.164842024542992</v>
+      </c>
+      <c r="AX3">
+        <v>7.153323439878291</v>
+      </c>
+      <c r="AY3">
+        <v>7.164842024542992</v>
+      </c>
+      <c r="AZ3">
+        <v>4816</v>
+      </c>
+      <c r="BA3">
+        <v>4578</v>
+      </c>
+      <c r="BB3">
+        <v>5530.5</v>
+      </c>
+      <c r="BC3">
+        <v>5380</v>
+      </c>
+      <c r="BD3">
+        <v>4963</v>
+      </c>
+      <c r="BE3">
+        <v>3928</v>
+      </c>
+      <c r="BF3">
+        <v>3911.5</v>
+      </c>
+      <c r="BG3">
+        <v>3891.5</v>
+      </c>
+      <c r="BH3">
+        <v>3890.5</v>
+      </c>
+      <c r="BI3">
+        <v>3923.5</v>
+      </c>
+      <c r="BJ3">
+        <v>32</v>
+      </c>
+      <c r="BK3">
+        <v>48.5</v>
+      </c>
+      <c r="BL3">
+        <v>68.5</v>
+      </c>
+      <c r="BM3">
+        <v>69.5</v>
+      </c>
+      <c r="BN3">
+        <v>36.5</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>4800</v>
+      </c>
+      <c r="BZ3">
+        <v>4800</v>
+      </c>
+      <c r="CA3">
+        <v>4800</v>
+      </c>
+      <c r="CB3">
+        <v>4800</v>
+      </c>
+      <c r="CC3">
+        <v>4800</v>
       </c>
       <c r="CD3">
-        <v>15.786300000000001</v>
+        <v>15.7863</v>
       </c>
       <c r="CE3">
-        <v>3.3443000000000001</v>
+        <v>3.3443</v>
       </c>
       <c r="CF3">
-        <v>15.029299999999999</v>
+        <v>15.0293</v>
       </c>
       <c r="CG3">
-        <v>12.758800000000001</v>
+        <v>12.7588</v>
       </c>
       <c r="CH3">
-        <v>1.3033999999999999</v>
+        <v>1.3034</v>
       </c>
       <c r="CI3">
-        <v>41.044199999999996</v>
+        <v>41.0442</v>
       </c>
       <c r="CJ3">
-        <v>8.6951999999999998</v>
+        <v>8.6952</v>
       </c>
       <c r="CK3">
         <v>39.0762</v>
       </c>
       <c r="CL3">
-        <v>33.172800000000002</v>
+        <v>33.1728</v>
       </c>
       <c r="CM3">
-        <v>3.3887999999999998</v>
+        <v>3.3888</v>
+      </c>
+      <c r="CS3">
+        <v>19412.46977165974</v>
+      </c>
+      <c r="CT3">
+        <v>472.9649931454315</v>
+      </c>
+      <c r="CU3">
+        <v>16057.92802793696</v>
+      </c>
+      <c r="CV3">
+        <v>1846.757754615992</v>
+      </c>
+      <c r="CW3">
+        <v>19759.93106055826</v>
+      </c>
+      <c r="CX3">
+        <v>505.6768841534781</v>
+      </c>
+      <c r="CY3">
+        <v>12829.30011591828</v>
+      </c>
+      <c r="CZ3">
+        <v>386.741550786135</v>
+      </c>
+      <c r="DA3">
+        <v>4107.661523417363</v>
+      </c>
+      <c r="DB3">
+        <v>1212.128636513626</v>
+      </c>
+      <c r="DC3">
+        <v>144.5765677732724</v>
+      </c>
+      <c r="DD3">
+        <v>188157.5940379048</v>
+      </c>
+      <c r="DE3">
+        <v>222777.5940379056</v>
+      </c>
+      <c r="DF3">
+        <v>188157.5940379048</v>
+      </c>
+      <c r="DG3">
+        <v>222777.5940379056</v>
+      </c>
+      <c r="DH3">
+        <v>188157.5940379048</v>
+      </c>
+      <c r="DI3">
+        <v>222777.5940379056</v>
+      </c>
+      <c r="DJ3">
+        <v>188157.5940379048</v>
+      </c>
+      <c r="DK3">
+        <v>222777.5940379056</v>
+      </c>
+      <c r="DL3">
+        <v>188157.5940379048</v>
+      </c>
+      <c r="DM3">
+        <v>222777.5940379056</v>
       </c>
       <c r="DN3">
-        <v>4.3524601018466109</v>
+        <v>4.352460101846611</v>
       </c>
       <c r="DO3">
-        <v>7.5114711737790394</v>
+        <v>7.511471173779039</v>
       </c>
       <c r="DP3">
-        <v>4.3274129480848353</v>
+        <v>4.327412948084835</v>
       </c>
       <c r="DQ3">
         <v>6.165876148649037</v>
       </c>
       <c r="DR3">
-        <v>2.9125402257792361</v>
+        <v>2.912540225779236</v>
       </c>
       <c r="DS3">
-        <v>197.58099712869341</v>
+        <v>197.5809971286934</v>
       </c>
       <c r="DT3">
-        <v>914.00511491561645</v>
+        <v>914.0051149156164</v>
       </c>
       <c r="DU3">
-        <v>357.20731240720028</v>
+        <v>357.2073124072003</v>
       </c>
       <c r="DV3">
-        <v>164.05110377800429</v>
+        <v>164.0511037780043</v>
       </c>
       <c r="DW3">
-        <v>726.97907411786389</v>
+        <v>726.9790741178639</v>
       </c>
       <c r="DX3">
-        <v>-0.34222605280489432</v>
+        <v>-0.3422260528048943</v>
       </c>
       <c r="DY3">
-        <v>9.7044183191794211</v>
+        <v>9.704418319179421</v>
       </c>
       <c r="DZ3">
-        <v>-0.38900476644821902</v>
+        <v>-0.389004766448219</v>
       </c>
       <c r="EA3">
-        <v>9.8688367297453325</v>
+        <v>9.868836729745333</v>
       </c>
       <c r="EB3">
-        <v>-0.38353110836222171</v>
+        <v>-0.3835311083622217</v>
       </c>
       <c r="EC3">
         <v>10.23424179665839</v>
       </c>
       <c r="ED3">
-        <v>-0.30933187096149262</v>
+        <v>-0.3093318709614926</v>
       </c>
       <c r="EE3">
-        <v>9.3719241895184346</v>
+        <v>9.371924189518435</v>
       </c>
       <c r="EF3">
-        <v>-0.40242446501756263</v>
+        <v>-0.4024244650175626</v>
       </c>
       <c r="EG3">
-        <v>9.8832562931283743</v>
+        <v>9.883256293128374</v>
       </c>
       <c r="EH3">
-        <v>7.1384383335836707</v>
+        <v>7.138438333583671</v>
       </c>
       <c r="EI3">
-        <v>347.06973871566402</v>
+        <v>347.069738715664</v>
       </c>
       <c r="EJ3">
         <v>201.93345723054</v>
       </c>
       <c r="EK3">
-        <v>921.51658608939545</v>
+        <v>921.5165860893954</v>
       </c>
       <c r="EL3">
         <v>361.5347253552851</v>
       </c>
       <c r="EM3">
-        <v>170.21697992665341</v>
+        <v>170.2169799266534</v>
       </c>
       <c r="EN3">
-        <v>729.89161434364314</v>
+        <v>729.8916143436431</v>
       </c>
       <c r="EO3">
-        <v>354.20817704924758</v>
+        <v>354.2081770492476</v>
       </c>
       <c r="EP3">
         <v>0</v>
@@ -2879,46 +2861,70 @@
         <v>113.0952669014023</v>
       </c>
       <c r="EU3">
-        <v>22.619053380280459</v>
+        <v>22.61905338028046</v>
       </c>
       <c r="EV3">
-        <v>0</v>
+        <v>25267.5</v>
+      </c>
+      <c r="EW3">
+        <v>5053.5</v>
       </c>
       <c r="EX3">
-        <v>0</v>
+        <v>19545</v>
+      </c>
+      <c r="EY3">
+        <v>3909</v>
       </c>
       <c r="EZ3">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="FA3">
+        <v>51</v>
       </c>
       <c r="FB3">
         <v>0</v>
       </c>
+      <c r="FC3">
+        <v>0</v>
+      </c>
       <c r="FD3">
         <v>0</v>
       </c>
+      <c r="FE3">
+        <v>0</v>
+      </c>
       <c r="FF3">
-        <v>0</v>
+        <v>24000</v>
+      </c>
+      <c r="FG3">
+        <v>4800</v>
       </c>
       <c r="FH3">
         <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0</v>
+        <v>72167.2904994906</v>
+      </c>
+      <c r="FK3">
+        <v>14433.45809989812</v>
       </c>
       <c r="FL3">
-        <v>0</v>
+        <v>4424.269819214663</v>
+      </c>
+      <c r="FM3">
+        <v>884.8539638429326</v>
       </c>
       <c r="FN3">
-        <v>5.0046187724832762</v>
+        <v>5.004618772483276</v>
       </c>
       <c r="FO3">
-        <v>1.0009237544966549</v>
+        <v>1.000923754496655</v>
       </c>
       <c r="FP3">
-        <v>302.45459673540859</v>
+        <v>302.4545967354086</v>
       </c>
       <c r="FQ3">
-        <v>60.490919347081729</v>
+        <v>60.49091934708173</v>
       </c>
       <c r="FR3">
         <v>0</v>
@@ -2927,79 +2933,103 @@
         <v>0</v>
       </c>
       <c r="FV3">
-        <v>307.45921550789188</v>
+        <v>307.4592155078919</v>
       </c>
       <c r="FW3">
-        <v>30.745921550789191</v>
+        <v>30.74592155078919</v>
       </c>
       <c r="FX3">
         <v>115.9558904600285</v>
       </c>
       <c r="FY3">
-        <v>57.977945230014242</v>
+        <v>57.97794523001424</v>
       </c>
       <c r="FZ3">
         <v>125.3772</v>
       </c>
       <c r="GA3">
-        <v>48.222099999999998</v>
+        <v>48.2221</v>
       </c>
       <c r="GB3">
         <v>-1.82651826359439</v>
       </c>
       <c r="GC3">
-        <v>-0.36530365271887799</v>
+        <v>-0.365303652718878</v>
       </c>
       <c r="GD3">
-        <v>49.062677328229952</v>
+        <v>49.06267732822995</v>
       </c>
       <c r="GE3">
-        <v>9.8125354656459898</v>
+        <v>9.81253546564599</v>
       </c>
       <c r="GF3">
         <v>113.0952669014023</v>
       </c>
       <c r="GG3">
-        <v>22.619053380280459</v>
+        <v>22.61905338028046</v>
       </c>
       <c r="GH3">
-        <v>0</v>
+        <v>25267.5</v>
+      </c>
+      <c r="GI3">
+        <v>5053.5</v>
       </c>
       <c r="GJ3">
-        <v>0</v>
+        <v>19545</v>
+      </c>
+      <c r="GK3">
+        <v>3909</v>
       </c>
       <c r="GL3">
-        <v>0</v>
+        <v>255</v>
+      </c>
+      <c r="GM3">
+        <v>51</v>
       </c>
       <c r="GN3">
         <v>0</v>
       </c>
+      <c r="GO3">
+        <v>0</v>
+      </c>
       <c r="GP3">
         <v>0</v>
       </c>
+      <c r="GQ3">
+        <v>0</v>
+      </c>
       <c r="GR3">
-        <v>0</v>
+        <v>24000</v>
+      </c>
+      <c r="GS3">
+        <v>4800</v>
       </c>
       <c r="GT3">
         <v>0</v>
       </c>
       <c r="GV3">
-        <v>0</v>
+        <v>72167.2904994906</v>
+      </c>
+      <c r="GW3">
+        <v>14433.45809989812</v>
       </c>
       <c r="GX3">
-        <v>0</v>
+        <v>4424.269819214663</v>
+      </c>
+      <c r="GY3">
+        <v>884.8539638429326</v>
       </c>
       <c r="GZ3">
-        <v>5.0046187724832762</v>
+        <v>5.004618772483276</v>
       </c>
       <c r="HA3">
-        <v>1.0009237544966549</v>
+        <v>1.000923754496655</v>
       </c>
       <c r="HB3">
-        <v>302.45459673540859</v>
+        <v>302.4545967354086</v>
       </c>
       <c r="HC3">
-        <v>60.490919347081729</v>
+        <v>60.49091934708173</v>
       </c>
       <c r="HD3">
         <v>0</v>
@@ -3008,34 +3038,34 @@
         <v>0</v>
       </c>
       <c r="HH3">
-        <v>307.45921550789188</v>
+        <v>307.4592155078919</v>
       </c>
       <c r="HI3">
-        <v>30.745921550789191</v>
+        <v>30.74592155078919</v>
       </c>
       <c r="HJ3">
         <v>115.9558904600285</v>
       </c>
       <c r="HK3">
-        <v>57.977945230014242</v>
+        <v>57.97794523001424</v>
       </c>
       <c r="HL3">
         <v>125.3772</v>
       </c>
       <c r="HM3">
-        <v>48.222099999999998</v>
+        <v>48.2221</v>
       </c>
       <c r="HN3">
         <v>-1.82651826359439</v>
       </c>
       <c r="HO3">
-        <v>-0.36530365271887799</v>
+        <v>-0.365303652718878</v>
       </c>
       <c r="HP3">
-        <v>49.062677328229952</v>
+        <v>49.06267732822995</v>
       </c>
       <c r="HQ3">
-        <v>9.8125354656459898</v>
+        <v>9.81253546564599</v>
       </c>
     </row>
   </sheetData>
